--- a/00文审机数值/H-活动表.xlsx
+++ b/00文审机数值/H-活动表.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>活动ID</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>每日19:00-22:00登录游戏领取奖励</t>
+  </si>
+  <si>
+    <t>存钱罐</t>
   </si>
   <si>
     <t>端午充值大返利</t>
@@ -323,12 +326,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1160,7 +1163,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,12 +1311,18 @@
         <v>45783</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:2">
+    <row r="6" s="4" customFormat="1" spans="1:4">
       <c r="A6" s="4">
         <v>2001</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:2">
@@ -1332,12 +1341,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>29</v>
+      </c>
       <c r="F8" s="6">
         <v>45808</v>
       </c>
@@ -1353,12 +1361,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="6">
         <v>45931</v>
       </c>

--- a/00文审机数值/H-活动表.xlsx
+++ b/00文审机数值/H-活动表.xlsx
@@ -7,8 +7,11 @@
     <workbookView windowWidth="27945" windowHeight="14055"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Activity" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Activity!$A$1:$H$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +55,7 @@
           <t xml:space="preserve">
 1：定时登录活动
 2：常驻活动
-3：定期活动</t>
+3：限时活动</t>
         </r>
       </text>
     </comment>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>活动ID</t>
   </si>
@@ -72,24 +75,21 @@
     <t>活动名称</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>持续天数</t>
+  </si>
+  <si>
     <t>活动状态</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>持续天数</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
     <t>activityName</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>activityDesc</t>
   </si>
   <si>
@@ -114,7 +111,7 @@
     <t>days</t>
   </si>
   <si>
-    <t>sort</t>
+    <t>status</t>
   </si>
   <si>
     <t>int</t>
@@ -123,28 +120,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>午间登录</t>
   </si>
   <si>
+    <t>每日12:00-14:00登录游戏领取{0}金币</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>每日12:00-14:00登录游戏领取奖励</t>
-  </si>
-  <si>
     <t>晚间登录</t>
   </si>
   <si>
-    <t>每日19:00-22:00登录游戏领取奖励</t>
+    <t>每日19:00-22:00登录游戏领取{0}金币</t>
   </si>
   <si>
     <t>存钱罐</t>
+  </si>
+  <si>
+    <t>每日在推币机游玩时有基础收益存入存钱罐</t>
   </si>
   <si>
     <t>端午充值大返利</t>
@@ -166,7 +160,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,9 +171,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -326,12 +325,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -690,137 +689,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,13 +832,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,30 +1160,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="4" max="4" width="47.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,173 +1207,166 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:6">
+    <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="4">
-        <v>1001</v>
+        <v>10001</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
         <v>45783</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
+    <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="4">
-        <v>1002</v>
+        <v>10002</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
         <v>45783</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:4">
+    <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="4">
-        <v>2001</v>
+        <v>20001</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45783</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:2">
+    <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="4">
-        <v>2002</v>
+        <v>30001</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45808</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45810</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:7">
+    <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="4">
-        <v>3001</v>
+        <v>30002</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45808</v>
-      </c>
-      <c r="G8" s="6">
-        <v>45810</v>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45931</v>
+      </c>
+      <c r="F8" s="7">
+        <v>45937</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:7">
-      <c r="A9" s="4">
-        <v>3002</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45931</v>
-      </c>
-      <c r="G9" s="6">
-        <v>45937</v>
-      </c>
-    </row>
+    <row r="9" s="4" customFormat="1"/>
     <row r="10" s="4" customFormat="1"/>
     <row r="11" s="4" customFormat="1"/>
     <row r="12" s="4" customFormat="1"/>
@@ -1426,8 +1420,10 @@
     <row r="60" s="4" customFormat="1"/>
     <row r="61" s="4" customFormat="1"/>
     <row r="62" s="4" customFormat="1"/>
-    <row r="63" s="4" customFormat="1"/>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H8" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/00文审机数值/H-活动表.xlsx
+++ b/00文审机数值/H-活动表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Activity!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Activity!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,12 +59,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-1代表开服即生效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>-1代表不会结束</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0 代表活动未开启
+1 代表活动已开启</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>活动ID</t>
   </si>
@@ -81,9 +121,6 @@
     <t>开始时间</t>
   </si>
   <si>
-    <t>结束时间</t>
-  </si>
-  <si>
     <t>持续天数</t>
   </si>
   <si>
@@ -105,9 +142,6 @@
     <t>startTime</t>
   </si>
   <si>
-    <t>endTime</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
@@ -126,9 +160,6 @@
     <t>每日12:00-14:00登录游戏领取{0}金币</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>晚间登录</t>
   </si>
   <si>
@@ -142,9 +173,6 @@
   </si>
   <si>
     <t>端午充值大返利</t>
-  </si>
-  <si>
-    <t>待开启</t>
   </si>
   <si>
     <t>国庆大放送</t>
@@ -838,7 +866,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1160,29 +1188,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="47.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,166 +1231,160 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:8">
+    <row r="4" s="4" customFormat="1" spans="1:7">
       <c r="A4" s="4">
         <v>10001</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45783</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:8">
+    <row r="5" s="4" customFormat="1" spans="1:7">
       <c r="A5" s="4">
         <v>10002</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45783</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:8">
+    <row r="6" s="4" customFormat="1" spans="1:7">
       <c r="A6" s="4">
         <v>20001</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <v>45783</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:8">
+    <row r="7" s="4" customFormat="1" spans="1:7">
       <c r="A7" s="4">
         <v>30001</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="7">
         <v>45808</v>
       </c>
-      <c r="F7" s="7">
-        <v>45810</v>
+      <c r="F7" s="4">
+        <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:8">
+    <row r="8" s="4" customFormat="1" spans="1:7">
       <c r="A8" s="4">
         <v>30002</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="7">
         <v>45931</v>
       </c>
-      <c r="F8" s="7">
-        <v>45937</v>
+      <c r="F8" s="4">
+        <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>7</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1"/>
@@ -1421,7 +1442,7 @@
     <row r="61" s="4" customFormat="1"/>
     <row r="62" s="4" customFormat="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H8" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G8" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00文审机数值/H-活动表.xlsx
+++ b/00文审机数值/H-活动表.xlsx
@@ -353,12 +353,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1193,7 +1193,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1204,7 +1204,7 @@
     <col min="4" max="4" width="47.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
